--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\大二\计算机组成原理\Projects\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="149">
   <si>
     <t>alu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,357 @@
   </si>
   <si>
     <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regwrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCWr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wdsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsel(alusrc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsel(alusrc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu/subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0?1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal&amp;j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu/subu/lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal&amp;j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +638,36 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,8 +694,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,15 +1033,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -664,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -678,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -692,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -706,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -750,7 +1155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -772,6 +1177,9 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
       <c r="L7">
         <v>1</v>
       </c>
@@ -785,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -817,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -849,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -878,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -886,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -894,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -902,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -928,7 +1336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -963,12 +1371,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -976,7 +1384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -984,7 +1392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -992,7 +1400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1000,7 +1408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1008,31 +1416,2068 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>3</v>
+      </c>
+      <c r="M63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>3</v>
+      </c>
+      <c r="M76" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3</v>
+      </c>
+      <c r="M89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L96" s="4"/>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="H97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="H98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="150">
   <si>
     <t>alu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jal&amp;j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,47 +573,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jal&amp;j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1035,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1703,9 +1707,6 @@
       </c>
       <c r="D47" t="s">
         <v>78</v>
-      </c>
-      <c r="F47" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2192,7 +2193,7 @@
         <v>110</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2201,8 +2202,12 @@
       <c r="H64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -2390,7 +2395,7 @@
         <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>114</v>
@@ -2686,7 +2691,9 @@
       <c r="J79" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K79" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
@@ -2797,14 +2804,14 @@
         <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
@@ -2814,10 +2821,10 @@
         <v>99</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="3"/>
@@ -3000,7 +3007,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -3031,8 +3038,8 @@
       <c r="J91" s="1">
         <v>0</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>138</v>
+      <c r="K91" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3048,7 +3055,7 @@
         <v>133</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E92" s="1"/>
       <c r="H92" s="1" t="s">
@@ -3057,11 +3064,11 @@
       <c r="I92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>145</v>
+      <c r="K92" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3106,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E94" s="1"/>
       <c r="H94" s="1" t="s">
@@ -3174,10 +3181,10 @@
         <v>99</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="3"/>
@@ -3351,7 +3358,7 @@
         <v>73</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E105" s="1"/>
     </row>
@@ -3381,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E107" s="1"/>
     </row>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="148">
   <si>
     <t>alu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,309 +206,401 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'b000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'b001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'b010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'b100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal==1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>jal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regwrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCWr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMwr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wdsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsel(alusrc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsel(alusrc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu/subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0?1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addu/subu/lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3'b000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3'b001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3'b010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3'b011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3'b100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wdsel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jal==1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>beq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>regwrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCWr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DMwr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALUop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPRsel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wdsel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsel(alusrc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsel(alusrc)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addu/subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>or</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,111 +609,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0?1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addu/subu/lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beq</t>
+    <t>j&amp;jal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1156,7 +1148,7 @@
         <v>33</v>
       </c>
       <c r="O6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1231,7 +1223,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1263,7 +1255,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1337,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1372,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1382,10 +1374,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1393,36 +1385,28 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1437,7 +1421,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1445,268 +1429,268 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
         <v>77</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
         <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
         <v>74</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
         <v>75</v>
-      </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -1744,10 +1728,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1755,10 +1739,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1767,7 +1751,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
@@ -1786,7 +1770,7 @@
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
@@ -1804,44 +1788,44 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -1860,7 +1844,7 @@
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I54" s="2">
         <v>1</v>
@@ -1878,7 +1862,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1897,7 +1881,7 @@
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -1915,7 +1899,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1934,7 +1918,7 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -1952,158 +1936,158 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="L58" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2119,10 +2103,10 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -2187,26 +2171,26 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -2214,7 +2198,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -2231,7 +2215,7 @@
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I65" s="2">
         <v>1</v>
@@ -2249,42 +2233,42 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -2301,7 +2285,7 @@
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I67" s="2">
         <v>1</v>
@@ -2319,7 +2303,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -2336,7 +2320,7 @@
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -2354,7 +2338,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -2371,7 +2355,7 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -2389,115 +2373,115 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J71" s="5" t="s">
+      <c r="K71" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>38</v>
@@ -2511,10 +2495,10 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>39</v>
@@ -2529,10 +2513,10 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -2546,10 +2530,10 @@
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -2614,7 +2598,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2623,7 +2607,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2633,7 +2617,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -2650,7 +2634,7 @@
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I78" s="2">
         <v>1</v>
@@ -2659,47 +2643,45 @@
         <v>0</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -2716,7 +2698,7 @@
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I80" s="2">
         <v>1</v>
@@ -2732,7 +2714,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -2749,7 +2731,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -2765,7 +2747,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -2782,7 +2764,7 @@
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -2798,165 +2780,165 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -2997,17 +2979,17 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -3017,7 +2999,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2">
         <v>1</v>
@@ -3026,11 +3008,11 @@
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I91" s="2">
         <v>1</v>
@@ -3039,43 +3021,39 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J92" s="2"/>
       <c r="K92" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>
@@ -3088,7 +3066,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I93" s="2">
         <v>1</v>
@@ -3104,7 +3082,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -3113,11 +3091,11 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -3133,7 +3111,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -3146,7 +3124,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -3162,145 +3140,145 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E97" s="5"/>
       <c r="H97" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E98" s="5"/>
       <c r="H98" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -3325,7 +3303,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3334,7 +3312,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
@@ -3343,28 +3321,26 @@
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
@@ -3379,7 +3355,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -3388,13 +3364,13 @@
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -3409,76 +3385,76 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E113" s="1"/>
     </row>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
   <si>
     <t>alu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,10 @@
   </si>
   <si>
     <t>j&amp;jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1031,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1690,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:13">

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="158">
   <si>
     <t>alu2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,42 @@
   </si>
   <si>
     <t>j&amp;jal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mfc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mtc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1033,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1697,179 +1733,110 @@
         <v>148</v>
       </c>
     </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
         <v>2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F53" s="1">
         <v>4</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="1">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
         <v>2</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L53" s="1">
         <v>3</v>
-      </c>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -1880,15 +1847,15 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="2">
-        <v>1</v>
+      <c r="F55" s="1">
+        <v>0</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -1899,418 +1866,424 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M59" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>101</v>
+      <c r="C60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M60" s="1"/>
+      <c r="J60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M60" s="4"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <v>2</v>
-      </c>
-      <c r="E63" s="1">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1">
-        <v>4</v>
+      <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="J63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1">
-        <v>2</v>
-      </c>
-      <c r="L63" s="1">
-        <v>3</v>
-      </c>
-      <c r="M63" s="1">
-        <v>4</v>
-      </c>
+      <c r="H63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1">
-        <v>0</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1">
-        <v>0</v>
-      </c>
+      <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>96</v>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>4</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1" t="s">
-        <v>96</v>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>0</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>0</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1">
-        <v>0</v>
-      </c>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -2319,15 +2292,15 @@
         <v>0</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="2">
-        <v>1</v>
+      <c r="F68" s="1">
+        <v>0</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -2336,392 +2309,400 @@
         <v>0</v>
       </c>
       <c r="L68" s="1"/>
-      <c r="M68" s="2">
-        <v>1</v>
+      <c r="M68" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1">
-        <v>0</v>
+      <c r="F69" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="L69" s="1"/>
-      <c r="M69" s="1">
-        <v>0</v>
+      <c r="M69" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="3" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1">
+        <v>0</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>0</v>
       </c>
       <c r="L70" s="1"/>
-      <c r="M70" s="4" t="s">
-        <v>112</v>
+      <c r="M70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2">
+        <v>1</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1">
+        <v>0</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1" t="s">
-        <v>38</v>
+      <c r="C73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>39</v>
+      <c r="J73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="L73" s="1"/>
-      <c r="M73" s="1" t="s">
-        <v>39</v>
+      <c r="M73" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1">
-        <v>4</v>
+      <c r="A76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="K76" s="1">
-        <v>2</v>
-      </c>
-      <c r="L76" s="1">
-        <v>3</v>
-      </c>
-      <c r="M76" s="1">
-        <v>4</v>
+      <c r="H76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
       <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1">
-        <v>0</v>
-      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>96</v>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4</v>
       </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1">
+        <v>3</v>
+      </c>
+      <c r="M79" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
-      <c r="J80" s="1">
-        <v>0</v>
-      </c>
-      <c r="K80" s="1">
-        <v>0</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -2730,737 +2711,834 @@
         <v>0</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="2">
-        <v>1</v>
+      <c r="F81" s="1">
+        <v>0</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I81" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
       </c>
-      <c r="K81" s="1">
-        <v>0</v>
+      <c r="K81" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="L81" s="1"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1">
-        <v>0</v>
+      <c r="F82" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
-      </c>
-      <c r="J82" s="1">
-        <v>0</v>
-      </c>
-      <c r="K82" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1">
+        <v>0</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2">
+        <v>1</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1">
+        <v>0</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>114</v>
+      <c r="C86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="J86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L86" s="4"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1">
-        <v>3</v>
-      </c>
-      <c r="F89" s="1">
-        <v>4</v>
-      </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1">
-        <v>0</v>
-      </c>
-      <c r="J89" s="1">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1">
-        <v>2</v>
-      </c>
-      <c r="L89" s="1">
-        <v>3</v>
-      </c>
-      <c r="M89" s="1">
-        <v>4</v>
-      </c>
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="H91" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I91" s="2">
-        <v>1</v>
-      </c>
-      <c r="J91" s="1">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-    </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="H92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1">
+        <v>2</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3</v>
+      </c>
+      <c r="M92" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1</v>
-      </c>
-      <c r="J93" s="1">
-        <v>0</v>
-      </c>
-      <c r="K93" s="1">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
       </c>
-      <c r="K94" s="1">
-        <v>0</v>
+      <c r="K94" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="L94" s="1"/>
-      <c r="M94" s="2"/>
+      <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
-      <c r="J95" s="1">
-        <v>0</v>
-      </c>
-      <c r="K95" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
       </c>
       <c r="E96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J97" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E98" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>128</v>
+      <c r="C99" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
+      <c r="J99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L99" s="4"/>
+      <c r="M99" s="3"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="H100" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K100" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="H101" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J101" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="H100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J100" s="1" t="s">
+      <c r="K101" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1">
-        <v>2</v>
-      </c>
-      <c r="E102" s="1">
-        <v>3</v>
-      </c>
-      <c r="F102" s="1">
-        <v>4</v>
-      </c>
+      <c r="A102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B104" s="2">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="1"/>
+      <c r="H103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E105" s="1"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E110" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
